--- a/benzene/data/benzene_data.xlsx
+++ b/benzene/data/benzene_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8985" tabRatio="719"/>
+    <workbookView windowWidth="19890" windowHeight="8985" tabRatio="719" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CCmd" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0">CCmd!$D$2:$D$10</definedName>
     <definedName name="ExternalData_1" localSheetId="1">'draft-phonon'!$B$1:$B$9</definedName>
+    <definedName name="ExternalData_1" localSheetId="2">'draft-QM'!$B$2:$B$13</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -21,42 +22,49 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="PN" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="1" name="OUT" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\benzene\PBED3\OUT.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="PN" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\diamond\PBE3\PN.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="QM" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="3" name="QM" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\diamond\PBE3\QM.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="tmp1" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="4" name="tmp1" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\tmp\tmp.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="tmp2" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="5" name="tmp2" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="tmpp1" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="6" name="tmpp1" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="tmpt2" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="7" name="tmpt2" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PBEnew\tmpt.txt">
       <textFields>
         <textField/>
@@ -67,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>V</t>
   </si>
@@ -120,13 +128,19 @@
     <t>z09</t>
   </si>
   <si>
-    <t>QM/2</t>
+    <t>QM per atom</t>
   </si>
   <si>
     <t>vol%</t>
   </si>
   <si>
     <t>vol</t>
+  </si>
+  <si>
+    <t>QM kcal/mol</t>
+  </si>
+  <si>
+    <t>ref</t>
   </si>
 </sst>
 </file>
@@ -134,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -145,6 +159,97 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,17 +262,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,40 +284,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,14 +298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -246,58 +312,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -308,187 +322,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,11 +525,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +551,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,32 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -599,151 +604,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -813,6 +827,16 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
@@ -822,7 +846,7 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
@@ -1092,8 +1116,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -1135,14 +1159,14 @@
         <v>1.06</v>
       </c>
       <c r="D2">
-        <v>-9.0717055</v>
+        <v>-76.8611525</v>
       </c>
       <c r="E2">
-        <v>0.0189873289115637</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <f>D2+E2</f>
-        <v>-9.05271817108844</v>
+        <v>-76.8611525</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1156,14 +1180,14 @@
         <v>1.04</v>
       </c>
       <c r="D3">
-        <v>-9.1140985</v>
+        <v>-76.8658225</v>
       </c>
       <c r="E3">
-        <v>0.0193641677609261</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F10" si="0">D3+E3</f>
-        <v>-9.09473433223907</v>
+        <v>-76.8658225</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1177,14 +1201,14 @@
         <v>1.02</v>
       </c>
       <c r="D4">
-        <v>-9.1530095</v>
+        <v>-76.8687675</v>
       </c>
       <c r="E4">
-        <v>0.0197557853423853</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>-9.13325371465761</v>
+        <v>-76.8687675</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1198,14 +1222,14 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>-9.188009</v>
+        <v>-76.8703325</v>
       </c>
       <c r="E5">
-        <v>0.0201579055402523</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>-9.16785109445975</v>
+        <v>-76.8703325</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1219,14 +1243,14 @@
         <v>0.98</v>
       </c>
       <c r="D6">
-        <v>-9.2186595</v>
+        <v>-76.86955</v>
       </c>
       <c r="E6">
-        <v>0.0205726748987848</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>-9.19808682510121</v>
+        <v>-76.86955</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1240,14 +1264,14 @@
         <v>0.96</v>
       </c>
       <c r="D7">
-        <v>-9.2444525</v>
+        <v>-76.8665675</v>
       </c>
       <c r="E7">
-        <v>0.0210006087570371</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>-9.22345189124296</v>
+        <v>-76.8665675</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1261,14 +1285,14 @@
         <v>0.94</v>
       </c>
       <c r="D8">
-        <v>-9.2648445</v>
+        <v>-76.8603175</v>
       </c>
       <c r="E8">
-        <v>0.0214412456743952</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>-9.2434032543256</v>
+        <v>-76.8603175</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1282,14 +1306,14 @@
         <v>0.92</v>
       </c>
       <c r="D9">
-        <v>-9.2792275</v>
+        <v>-76.8516625</v>
       </c>
       <c r="E9">
-        <v>0.0218967518239959</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>-9.257330748176</v>
+        <v>-76.8516625</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1303,14 +1327,14 @@
         <v>0.9</v>
       </c>
       <c r="D10">
-        <v>-9.2869315</v>
+        <v>-76.8364575</v>
       </c>
       <c r="E10">
-        <v>0.0223664061846353</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>-9.26456509381536</v>
+        <v>-76.8364575</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1323,8 +1347,8 @@
       <c r="C11" s="1">
         <v>0.84</v>
       </c>
-      <c r="D11" s="1">
-        <v>-9.2620585</v>
+      <c r="D11">
+        <v>-76.763845</v>
       </c>
       <c r="F11" s="1">
         <v>-9.2620585</v>
@@ -1340,8 +1364,8 @@
       <c r="C12" s="1">
         <v>0.68</v>
       </c>
-      <c r="D12" s="1">
-        <v>-8.6402785</v>
+      <c r="D12">
+        <v>-76.0910825</v>
       </c>
       <c r="F12" s="1">
         <v>-8.6402785</v>
@@ -1357,8 +1381,8 @@
       <c r="C13" s="1">
         <v>0.55</v>
       </c>
-      <c r="D13" s="1">
-        <v>-6.9676815</v>
+      <c r="D13">
+        <v>-38.1514865</v>
       </c>
       <c r="F13" s="1">
         <v>-6.9676815</v>
@@ -1502,21 +1526,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="9.5"/>
-    <col min="3" max="3" width="11.5"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="12.625"/>
     <col min="5" max="5" width="10.375"/>
     <col min="6" max="6" width="12.625"/>
+    <col min="7" max="8" width="13.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:8">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1529,17 +1554,23 @@
       <c r="E1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1">
+        <v>-879.63212841823</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>-18.143411</v>
+        <v>-307.44461</v>
       </c>
       <c r="C2">
-        <f>B2/2</f>
-        <v>-9.0717055</v>
+        <f>B2/4</f>
+        <v>-76.8611525</v>
       </c>
       <c r="D2" s="1">
         <v>1.06</v>
@@ -1552,40 +1583,56 @@
         <f>D2^(1/3)</f>
         <v>1.01961282242222</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>C2/2.611E+22*6.02*1E+23</f>
+        <v>-1772.13381099196</v>
+      </c>
+      <c r="H2">
+        <f>G2+879.63212841823</f>
+        <v>-892.501682573727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>-18.228197</v>
+        <v>-307.46329</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C10" si="0">B3/2</f>
-        <v>-9.1140985</v>
+        <f t="shared" ref="C3:C12" si="0">B3/4</f>
+        <v>-76.8658225</v>
       </c>
       <c r="D3" s="1">
         <v>1.04</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E10" si="1">$D3*6.33163</f>
+        <f t="shared" ref="E3:E13" si="1">$D3*6.33163</f>
         <v>6.5848952</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F15" si="2">D3^(1/3)</f>
         <v>1.01315940382018</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="3">C3/2.611E+22*6.02*1E+23</f>
+        <v>-1772.24148391421</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H13" si="4">G3+879.63212841823</f>
+        <v>-892.609355495979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>-18.306019</v>
+        <v>-307.47507</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>-9.1530095</v>
+        <v>-76.8687675</v>
       </c>
       <c r="D4" s="1">
         <v>1.02</v>
@@ -1598,17 +1645,25 @@
         <f t="shared" si="2"/>
         <v>1.00662270956011</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>-1772.3093847185</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>-892.677256300268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>-18.376018</v>
+        <v>-307.48133</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>-9.188009</v>
+        <v>-76.8703325</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1621,17 +1676,25 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>-1772.34546782842</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>-892.713339410188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>-18.437319</v>
+        <v>-307.4782</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>-9.2186595</v>
+        <v>-76.86955</v>
       </c>
       <c r="D6" s="1">
         <v>0.98</v>
@@ -1644,17 +1707,25 @@
         <f t="shared" si="2"/>
         <v>0.993288388379269</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>-1772.32742627346</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>-892.695297855228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>-18.488905</v>
+        <v>-307.46627</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>-9.2444525</v>
+        <v>-76.8665675</v>
       </c>
       <c r="D7" s="1">
         <v>0.96</v>
@@ -1667,17 +1738,25 @@
         <f t="shared" si="2"/>
         <v>0.986484829732188</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>-1772.25866085791</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>-892.626532439678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>-18.529689</v>
+        <v>-307.44127</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>-9.2648445</v>
+        <v>-76.8603175</v>
       </c>
       <c r="D8" s="1">
         <v>0.94</v>
@@ -1690,17 +1769,25 @@
         <f t="shared" si="2"/>
         <v>0.979586108715562</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>-1772.11455898123</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>-892.482430563003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>-18.558455</v>
+        <v>-307.40665</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>-9.2792275</v>
+        <v>-76.8516625</v>
       </c>
       <c r="D9" s="1">
         <v>0.92</v>
@@ -1713,17 +1800,25 @@
         <f t="shared" si="2"/>
         <v>0.972588826218856</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>-1771.91500670241</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>-892.282878284183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>-18.573863</v>
+        <v>-307.34583</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>-9.2869315</v>
+        <v>-76.8364575</v>
       </c>
       <c r="D10" s="1">
         <v>0.9</v>
@@ -1736,74 +1831,96 @@
         <f t="shared" si="2"/>
         <v>0.96548938460563</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>-1771.56443565684</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>-891.932307238606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="3">
-        <v>-18.524117</v>
+        <v>-307.05538</v>
       </c>
       <c r="C11">
-        <f>B11/2</f>
-        <v>-9.2620585</v>
+        <f t="shared" si="0"/>
+        <v>-76.763845</v>
       </c>
       <c r="D11" s="1">
         <v>0.84</v>
       </c>
       <c r="E11">
-        <f>$D11*6.33163</f>
+        <f t="shared" si="1"/>
         <v>5.3185692</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
         <v>0.943538796063307</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>-1769.89026005362</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>-890.258131635389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3">
-        <v>-17.280557</v>
+        <v>-304.36433</v>
       </c>
       <c r="C12">
-        <f>B12/2</f>
-        <v>-8.6402785</v>
+        <f t="shared" si="0"/>
+        <v>-76.0910825</v>
       </c>
       <c r="D12" s="1">
         <v>0.68</v>
       </c>
       <c r="E12">
-        <f>$D12*6.33163</f>
+        <f t="shared" si="1"/>
         <v>4.3055084</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
         <v>0.879365934431636</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>-1754.3788458445</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>-874.746717426274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3">
-        <v>-13.935363</v>
+        <v>-76.302973</v>
       </c>
       <c r="C13">
         <f>B13/2</f>
-        <v>-6.9676815</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.55</v>
-      </c>
-      <c r="E13">
-        <f>$D13*6.33163</f>
-        <v>3.4823965</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>0.819321270600646</v>
+        <v>-38.1514865</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>-879.63212841823</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="4:4">

--- a/benzene/data/benzene_data.xlsx
+++ b/benzene/data/benzene_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8985" tabRatio="719" activeTab="2"/>
+    <workbookView windowWidth="19650" windowHeight="7365" tabRatio="719"/>
   </bookViews>
   <sheets>
     <sheet name="CCmd" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>V</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>z08</t>
-  </si>
-  <si>
-    <t>z09</t>
   </si>
   <si>
     <t>QM per atom</t>
@@ -148,9 +145,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -162,6 +159,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -176,15 +181,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,7 +214,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,26 +236,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,6 +251,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,38 +274,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,11 +289,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,13 +319,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +427,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,55 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,97 +487,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,15 +510,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -536,47 +524,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,8 +546,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,151 +590,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,14 +1113,13 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.375" style="1"/>
+    <col min="1" max="2" width="12.625" style="1"/>
     <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
@@ -1152,241 +1148,248 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>6.7115278</v>
+      <c r="B2" s="1">
+        <f>461.7888235*C2</f>
+        <v>489.49615291</v>
       </c>
       <c r="C2" s="1">
         <v>1.06</v>
       </c>
       <c r="D2">
-        <v>-76.8611525</v>
+        <v>-892.501682573727</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" s="1">
         <f>D2+E2</f>
-        <v>-76.8611525</v>
+        <v>-892.501682573727</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>6.5848952</v>
+      <c r="B3" s="1">
+        <f>461.7888235*C3</f>
+        <v>480.26037644</v>
       </c>
       <c r="C3" s="1">
         <v>1.04</v>
       </c>
       <c r="D3">
-        <v>-76.8658225</v>
+        <v>-892.609355495979</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F10" si="0">D3+E3</f>
-        <v>-76.8658225</v>
+        <v>-892.609355495979</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>6.4582626</v>
+      <c r="B4" s="1">
+        <f>461.7888235*C4</f>
+        <v>471.02459997</v>
       </c>
       <c r="C4" s="1">
         <v>1.02</v>
       </c>
       <c r="D4">
-        <v>-76.8687675</v>
+        <v>-892.677256300268</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>-76.8687675</v>
+        <v>-892.677256300268</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>6.33163</v>
+      <c r="B5" s="1">
+        <f>461.7888235*C5</f>
+        <v>461.7888235</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>-76.8703325</v>
+        <v>-892.713339410188</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>-76.8703325</v>
+        <v>-892.713339410188</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>6.2049974</v>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B12" si="1">461.7888235*C6</f>
+        <v>452.55304703</v>
       </c>
       <c r="C6" s="1">
         <v>0.98</v>
       </c>
       <c r="D6">
-        <v>-76.86955</v>
+        <v>-892.695297855228</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>-76.86955</v>
+        <v>-892.695297855228</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>6.0783648</v>
+      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>443.31727056</v>
       </c>
       <c r="C7" s="1">
         <v>0.96</v>
       </c>
       <c r="D7">
-        <v>-76.8665675</v>
+        <v>-892.626532439678</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>-76.8665675</v>
+        <v>-892.626532439678</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>5.9517322</v>
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>434.08149409</v>
       </c>
       <c r="C8" s="1">
         <v>0.94</v>
       </c>
       <c r="D8">
-        <v>-76.8603175</v>
+        <v>-892.482430563003</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>-76.8603175</v>
+        <v>-892.482430563003</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>5.8250996</v>
+      <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>424.84571762</v>
       </c>
       <c r="C9" s="1">
         <v>0.92</v>
       </c>
       <c r="D9">
-        <v>-76.8516625</v>
+        <v>-892.282878284183</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>-76.8516625</v>
+        <v>-892.282878284183</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>5.698467</v>
+      <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>415.60994115</v>
       </c>
       <c r="C10" s="1">
         <v>0.9</v>
       </c>
       <c r="D10">
-        <v>-76.8364575</v>
+        <v>-891.932307238606</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>-76.8364575</v>
+        <v>-891.932307238606</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>5.3185692</v>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>387.90261174</v>
       </c>
       <c r="C11" s="1">
         <v>0.84</v>
       </c>
       <c r="D11">
-        <v>-76.763845</v>
+        <v>-890.258131635389</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>-9.2620585</v>
+        <f>D11+E11</f>
+        <v>-890.258131635389</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>4.3055084</v>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>314.01639998</v>
       </c>
       <c r="C12" s="1">
         <v>0.68</v>
       </c>
       <c r="D12">
-        <v>-76.0910825</v>
+        <v>-874.746717426274</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>-8.6402785</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>3.4823965</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.55</v>
-      </c>
-      <c r="D13">
-        <v>-38.1514865</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-6.9676815</v>
-      </c>
+        <f>D12+E12</f>
+        <v>-874.746717426274</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13"/>
+      <c r="C13" s="1"/>
+      <c r="D13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1526,10 +1529,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -1546,16 +1549,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
       </c>
       <c r="H1">
         <v>-879.63212841823</v>
@@ -1904,7 +1907,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3">
         <v>-76.302973</v>
@@ -1928,6 +1931,12 @@
     </row>
     <row r="15" spans="4:4">
       <c r="D15" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1">
+        <f>7.355*9.371*6.7</f>
+        <v>461.7888235</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/benzene/data/benzene_data.xlsx
+++ b/benzene/data/benzene_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19650" windowHeight="7365" tabRatio="719"/>
+    <workbookView windowWidth="20385" windowHeight="9405" tabRatio="719"/>
   </bookViews>
   <sheets>
     <sheet name="CCmd" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <definedName name="ExternalData_1" localSheetId="0">CCmd!$D$2:$D$10</definedName>
     <definedName name="ExternalData_1" localSheetId="1">'draft-phonon'!$B$1:$B$9</definedName>
     <definedName name="ExternalData_1" localSheetId="2">'draft-QM'!$B$2:$B$13</definedName>
+    <definedName name="ExternalData_2" localSheetId="0">CCmd!$G$2:$G$11</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -43,28 +44,35 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="tmp1" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="4" name="tmp" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\benzene\tmp.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="tmp1" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\tmp\tmp.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="tmp2" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="6" name="tmp2" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="tmpp1" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="7" name="tmpp1" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="tmpt2" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="8" name="tmpt2" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PBEnew\tmpt.txt">
       <textFields>
         <textField/>
@@ -75,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>V</t>
   </si>
@@ -89,7 +97,10 @@
     <t>PN</t>
   </si>
   <si>
-    <t>QMPN</t>
+    <t>QMPN kcal/mol</t>
+  </si>
+  <si>
+    <t>VopXfull</t>
   </si>
   <si>
     <t>a</t>
@@ -122,19 +133,19 @@
     <t>z07</t>
   </si>
   <si>
+    <t>QM per atom</t>
+  </si>
+  <si>
+    <t>vol%</t>
+  </si>
+  <si>
+    <t>vol</t>
+  </si>
+  <si>
+    <t>QM kcal/mol</t>
+  </si>
+  <si>
     <t>z08</t>
-  </si>
-  <si>
-    <t>QM per atom</t>
-  </si>
-  <si>
-    <t>vol%</t>
-  </si>
-  <si>
-    <t>vol</t>
-  </si>
-  <si>
-    <t>QM kcal/mol</t>
   </si>
   <si>
     <t>ref</t>
@@ -147,8 +158,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -156,6 +167,142 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,143 +315,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,25 +330,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,157 +462,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,32 +524,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,16 +558,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,8 +590,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,159 +607,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -824,6 +835,16 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
@@ -833,7 +854,7 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
@@ -843,7 +864,7 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
@@ -1111,23 +1132,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="12.625" style="1"/>
     <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="13.75" style="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1143,10 +1165,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <f>461.7888235*C2</f>
@@ -1156,19 +1181,22 @@
         <v>1.06</v>
       </c>
       <c r="D2">
-        <v>-892.501682573727</v>
+        <v>-12.8695541555001</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" s="1">
         <f>D2+E2</f>
-        <v>-892.501682573727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-12.8695541555001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-15.8279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <f>461.7888235*C3</f>
@@ -1178,19 +1206,22 @@
         <v>1.04</v>
       </c>
       <c r="D3">
-        <v>-892.609355495979</v>
+        <v>-12.9772270777489</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F10" si="0">D3+E3</f>
-        <v>-892.609355495979</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <f t="shared" ref="F3:F12" si="0">D3+E3</f>
+        <v>-12.9772270777489</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-16.4682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <f>461.7888235*C4</f>
@@ -1200,19 +1231,22 @@
         <v>1.02</v>
       </c>
       <c r="D4">
-        <v>-892.677256300268</v>
+        <v>-13.0451278820385</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>-892.677256300268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-13.0451278820385</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-17.1323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <f>461.7888235*C5</f>
@@ -1222,19 +1256,22 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>-892.713339410188</v>
+        <v>-13.081210991958</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>-892.713339410188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>-13.081210991958</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-17.8484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B12" si="1">461.7888235*C6</f>
@@ -1244,19 +1281,22 @@
         <v>0.98</v>
       </c>
       <c r="D6">
-        <v>-892.695297855228</v>
+        <v>-13.0631694369981</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>-892.695297855228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-13.0631694369981</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-18.6039</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -1266,19 +1306,22 @@
         <v>0.96</v>
       </c>
       <c r="D7">
-        <v>-892.626532439678</v>
+        <v>-12.9944040214484</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>-892.626532439678</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-12.9944040214484</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-19.2502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -1288,19 +1331,22 @@
         <v>0.94</v>
       </c>
       <c r="D8">
-        <v>-892.482430563003</v>
+        <v>-12.850302144773</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>-892.482430563003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-12.850302144773</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-20.2273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -1310,19 +1356,22 @@
         <v>0.92</v>
       </c>
       <c r="D9">
-        <v>-892.282878284183</v>
+        <v>-12.6507498659528</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>-892.282878284183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-12.6507498659528</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-21.1054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
@@ -1332,19 +1381,22 @@
         <v>0.9</v>
       </c>
       <c r="D10">
-        <v>-891.932307238606</v>
+        <v>-12.3001788203762</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>-891.932307238606</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-12.3001788203762</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-22.0682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -1354,41 +1406,25 @@
         <v>0.84</v>
       </c>
       <c r="D11">
-        <v>-890.258131635389</v>
+        <v>-10.626003217159</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f>D11+E11</f>
-        <v>-890.258131635389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="1"/>
-        <v>314.01639998</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="D12">
-        <v>-874.746717426274</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <f>D12+E12</f>
-        <v>-874.746717426274</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>-10.626003217159</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-25.203</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12"/>
+      <c r="E12"/>
     </row>
     <row r="13" spans="2:4">
       <c r="B13"/>
-      <c r="C13" s="1"/>
       <c r="D13"/>
     </row>
   </sheetData>
@@ -1414,7 +1450,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>29.3096749</v>
@@ -1426,7 +1462,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>29.8913799</v>
@@ -1438,7 +1474,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>30.495898</v>
@@ -1450,7 +1486,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>31.1166284</v>
@@ -1462,7 +1498,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>31.7568846</v>
@@ -1474,7 +1510,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>32.4174621</v>
@@ -1486,7 +1522,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>33.0976486</v>
@@ -1498,7 +1534,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>33.8007879</v>
@@ -1510,7 +1546,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>34.525767</v>
@@ -1532,7 +1568,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -1561,12 +1597,12 @@
         <v>19</v>
       </c>
       <c r="H1">
-        <v>-879.63212841823</v>
+        <v>-1759.26425683646</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>-307.44461</v>
@@ -1591,13 +1627,13 @@
         <v>-1772.13381099196</v>
       </c>
       <c r="H2">
-        <f>G2+879.63212841823</f>
-        <v>-892.501682573727</v>
+        <f>G2+1759.26425683646</f>
+        <v>-12.8695541555001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>-307.46329</v>
@@ -1622,13 +1658,13 @@
         <v>-1772.24148391421</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H13" si="4">G3+879.63212841823</f>
-        <v>-892.609355495979</v>
+        <f t="shared" ref="H3:H13" si="4">G3+1759.26425683646</f>
+        <v>-12.9772270777489</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>-307.47507</v>
@@ -1654,12 +1690,12 @@
       </c>
       <c r="H4">
         <f t="shared" si="4"/>
-        <v>-892.677256300268</v>
+        <v>-13.0451278820385</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>-307.48133</v>
@@ -1685,12 +1721,12 @@
       </c>
       <c r="H5">
         <f t="shared" si="4"/>
-        <v>-892.713339410188</v>
+        <v>-13.081210991958</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>-307.4782</v>
@@ -1716,12 +1752,12 @@
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
-        <v>-892.695297855228</v>
+        <v>-13.0631694369981</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>-307.46627</v>
@@ -1747,12 +1783,12 @@
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
-        <v>-892.626532439678</v>
+        <v>-12.9944040214484</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>-307.44127</v>
@@ -1778,12 +1814,12 @@
       </c>
       <c r="H8">
         <f t="shared" si="4"/>
-        <v>-892.482430563003</v>
+        <v>-12.850302144773</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <v>-307.40665</v>
@@ -1809,12 +1845,12 @@
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
-        <v>-892.282878284183</v>
+        <v>-12.6507498659528</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>-307.34583</v>
@@ -1840,12 +1876,12 @@
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
-        <v>-891.932307238606</v>
+        <v>-12.3001788203762</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
         <v>-307.05538</v>
@@ -1871,12 +1907,12 @@
       </c>
       <c r="H11">
         <f t="shared" si="4"/>
-        <v>-890.258131635389</v>
+        <v>-10.626003217159</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3">
         <v>-304.36433</v>
@@ -1902,24 +1938,24 @@
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
-        <v>-874.746717426274</v>
+        <v>4.88541099195595</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3">
         <v>-76.302973</v>
       </c>
       <c r="C13">
-        <f>B13/2</f>
-        <v>-38.1514865</v>
+        <f>B13</f>
+        <v>-76.302973</v>
       </c>
       <c r="D13" s="1"/>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>-879.63212841823</v>
+        <v>-1759.26425683646</v>
       </c>
       <c r="H13">
         <f t="shared" si="4"/>

--- a/benzene/data/benzene_data.xlsx
+++ b/benzene/data/benzene_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9405" tabRatio="719"/>
+    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="719" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CCmd" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <definedName name="ExternalData_1" localSheetId="0">CCmd!$D$2:$D$10</definedName>
     <definedName name="ExternalData_1" localSheetId="1">'draft-phonon'!$B$1:$B$9</definedName>
     <definedName name="ExternalData_1" localSheetId="2">'draft-QM'!$B$2:$B$13</definedName>
-    <definedName name="ExternalData_2" localSheetId="0">CCmd!$G$2:$G$11</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -44,35 +43,28 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="tmp" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="F:\William\benzene\tmp.txt">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="5" name="tmp1" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="4" name="tmp1" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\tmp\tmp.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="tmp2" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="5" name="tmp2" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="tmpp1" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="6" name="tmpp1" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PV0c\tmpp.txt" space="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="tmpt2" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="7" name="tmpt2" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\PBEnew\tmpt.txt">
       <textFields>
         <textField/>
@@ -97,10 +89,7 @@
     <t>PN</t>
   </si>
   <si>
-    <t>QMPN kcal/mol</t>
-  </si>
-  <si>
-    <t>VopXfull</t>
+    <t>QMPN</t>
   </si>
   <si>
     <t>a</t>
@@ -133,6 +122,9 @@
     <t>z07</t>
   </si>
   <si>
+    <t>z08</t>
+  </si>
+  <si>
     <t>QM per atom</t>
   </si>
   <si>
@@ -145,10 +137,10 @@
     <t>QM kcal/mol</t>
   </si>
   <si>
-    <t>z08</t>
-  </si>
-  <si>
     <t>ref</t>
+  </si>
+  <si>
+    <t>ref04</t>
   </si>
 </sst>
 </file>
@@ -156,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -171,7 +163,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,14 +187,38 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,6 +230,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -207,10 +246,40 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,37 +292,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -261,41 +299,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,21 +312,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -330,6 +322,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,25 +412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,13 +448,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,19 +478,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,91 +502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,8 +519,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +529,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -572,6 +575,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -583,26 +595,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,148 +616,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -835,7 +827,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -845,7 +837,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -855,16 +847,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
@@ -1132,24 +1114,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="12.625" style="1"/>
     <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="13.75" style="1"/>
-    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,13 +1146,10 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="1">
         <f>461.7888235*C2</f>
@@ -1181,22 +1159,19 @@
         <v>1.06</v>
       </c>
       <c r="D2">
-        <v>-12.8695541555001</v>
+        <v>-892.501682573727</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" s="1">
         <f>D2+E2</f>
-        <v>-12.8695541555001</v>
-      </c>
-      <c r="G2" s="1">
-        <v>-15.8279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-892.501682573727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <f>461.7888235*C3</f>
@@ -1206,22 +1181,19 @@
         <v>1.04</v>
       </c>
       <c r="D3">
-        <v>-12.9772270777489</v>
+        <v>-892.609355495979</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F12" si="0">D3+E3</f>
-        <v>-12.9772270777489</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-16.4682</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-892.609355495979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <f>461.7888235*C4</f>
@@ -1231,22 +1203,19 @@
         <v>1.02</v>
       </c>
       <c r="D4">
-        <v>-13.0451278820385</v>
+        <v>-892.677256300268</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>-13.0451278820385</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-17.1323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-892.677256300268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <f>461.7888235*C5</f>
@@ -1256,22 +1225,19 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>-13.081210991958</v>
+        <v>-892.713339410188</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>-13.081210991958</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-17.8484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>-892.713339410188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B12" si="1">461.7888235*C6</f>
@@ -1281,22 +1247,19 @@
         <v>0.98</v>
       </c>
       <c r="D6">
-        <v>-13.0631694369981</v>
+        <v>-892.695297855228</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>-13.0631694369981</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-18.6039</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-892.695297855228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -1306,22 +1269,19 @@
         <v>0.96</v>
       </c>
       <c r="D7">
-        <v>-12.9944040214484</v>
+        <v>-892.626532439678</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>-12.9944040214484</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-19.2502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-892.626532439678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -1331,22 +1291,19 @@
         <v>0.94</v>
       </c>
       <c r="D8">
-        <v>-12.850302144773</v>
+        <v>-892.482430563003</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>-12.850302144773</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-20.2273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-892.482430563003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -1356,22 +1313,19 @@
         <v>0.92</v>
       </c>
       <c r="D9">
-        <v>-12.6507498659528</v>
+        <v>-892.282878284183</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>-12.6507498659528</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-21.1054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-892.282878284183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
@@ -1381,22 +1335,19 @@
         <v>0.9</v>
       </c>
       <c r="D10">
-        <v>-12.3001788203762</v>
+        <v>-891.932307238606</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>-12.3001788203762</v>
-      </c>
-      <c r="G10" s="1">
-        <v>-22.0682</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-891.932307238606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -1406,22 +1357,37 @@
         <v>0.84</v>
       </c>
       <c r="D11">
-        <v>-10.626003217159</v>
+        <v>-890.258131635389</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>-10.626003217159</v>
-      </c>
-      <c r="G11" s="1">
-        <v>-25.203</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5">
-      <c r="D12"/>
-      <c r="E12"/>
+        <v>-890.258131635389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>314.01639998</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="D12">
+        <v>-874.746717426274</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>-874.746717426274</v>
+      </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13"/>
@@ -1450,7 +1416,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1">
         <v>29.3096749</v>
@@ -1462,7 +1428,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>29.8913799</v>
@@ -1474,7 +1440,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>30.495898</v>
@@ -1486,7 +1452,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>31.1166284</v>
@@ -1498,7 +1464,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>31.7568846</v>
@@ -1510,7 +1476,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>32.4174621</v>
@@ -1522,7 +1488,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>33.0976486</v>
@@ -1534,7 +1500,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>33.8007879</v>
@@ -1546,7 +1512,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>34.525767</v>
@@ -1565,13 +1531,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="12.625"/>
@@ -1602,7 +1568,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>-307.44461</v>
@@ -1633,7 +1599,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>-307.46329</v>
@@ -1664,7 +1630,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>-307.47507</v>
@@ -1695,7 +1661,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>-307.48133</v>
@@ -1726,7 +1692,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>-307.4782</v>
@@ -1757,7 +1723,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>-307.46627</v>
@@ -1788,7 +1754,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>-307.44127</v>
@@ -1813,13 +1779,13 @@
         <v>-1772.11455898123</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
-        <v>-12.850302144773</v>
+        <f>G8+1760.47420536193</f>
+        <v>-11.6403536193029</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>-307.40665</v>
@@ -1850,7 +1816,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
         <v>-307.34583</v>
@@ -1881,7 +1847,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3">
         <v>-307.05538</v>
@@ -1910,9 +1876,9 @@
         <v>-10.626003217159</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3">
         <v>-304.36433</v>
@@ -1940,10 +1906,13 @@
         <f t="shared" si="4"/>
         <v>4.88541099195595</v>
       </c>
+      <c r="J12">
+        <v>-1760.47420536193</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3">
         <v>-76.302973</v>
@@ -1962,8 +1931,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:4">
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-76.355451</v>
+      </c>
+      <c r="C14">
+        <f>B14</f>
+        <v>-76.355451</v>
+      </c>
       <c r="D14" s="1"/>
+      <c r="G14">
+        <f>C14/2.611E+22*6.02*1E+23</f>
+        <v>-1760.47420536193</v>
+      </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" s="1"/>
